--- a/static/template/Internal Statistical Reporting Template.xlsx
+++ b/static/template/Internal Statistical Reporting Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\var\neuralNOD\Core Neural Network (private)\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4173A67-0285-444E-8AAC-253DF5C2C71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76428000-2512-41E6-B11B-CBCDB7194964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{A8FA6C65-F4C8-40D2-818C-9F680934BC5F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8FA6C65-F4C8-40D2-818C-9F680934BC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>👾 &lt; neuralNOD /&gt;</t>
-  </si>
   <si>
     <t>AI Powered Engine to Forecast Market Clearing Price (MCP)</t>
   </si>
@@ -113,12 +110,37 @@
       <t>(internal reports - for training and validation)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">👾 &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Ink Free"/>
+        <family val="4"/>
+      </rPr>
+      <t>neuralNOD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Ink Free"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve"> /&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +231,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Ink Free"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -230,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -441,11 +470,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -468,6 +534,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -505,33 +607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -861,32 +936,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="A1" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="2"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -897,45 +972,45 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -946,122 +1021,122 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="21" t="s">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="20" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="16"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1081,39 +1156,39 @@
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="A13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1125,36 +1200,37 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A13:N14"/>
-    <mergeCell ref="H10:J11"/>
-    <mergeCell ref="K10:N11"/>
-    <mergeCell ref="C9:F11"/>
+  <mergeCells count="22">
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A9:B11"/>
+    <mergeCell ref="I15:N15"/>
     <mergeCell ref="K5:N5"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
+    <mergeCell ref="A13:N14"/>
+    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="K10:N11"/>
+    <mergeCell ref="C9:F11"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A9:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/static/template/Internal Statistical Reporting Template.xlsx
+++ b/static/template/Internal Statistical Reporting Template.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\var\neuralNOD\Core Neural Network (private)\static\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76428000-2512-41E6-B11B-CBCDB7194964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B4CA4B-7F30-435D-92FC-5E1484715EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8FA6C65-F4C8-40D2-818C-9F680934BC5F}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="1" r:id="rId1"/>
+    <sheet name="Testing Dataset" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Testing Dataset'!$A$2:$G$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>AI Powered Engine to Forecast Market Clearing Price (MCP)</t>
   </si>
@@ -135,12 +139,106 @@
       <t xml:space="preserve"> /&gt;</t>
     </r>
   </si>
+  <si>
+    <t>Effective Date | Block ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Purchase Bid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[in MW]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sell Bid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[in MW]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MCV
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[in MW]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MCP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[in ₹/MWh]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Scaled MCP
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[in ₹/MWh]</t>
+    </r>
+  </si>
+  <si>
+    <t>Actual Training Data - for Internal Quality Control</t>
+  </si>
+  <si>
+    <t>MA of Period = 12 on MCP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +336,30 @@
       <name val="Ink Free"/>
       <family val="4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -259,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -507,11 +629,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -533,6 +722,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -609,6 +828,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,6 +858,898 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Market Clearing Price (MCP)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t>[in ₹/MWh]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Testing Dataset'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCP
+[in ₹/MWh]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="12"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'Testing Dataset'!$F$2:$F$291</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="290"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C9C-439B-BE2A-84F7DD5056A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="688948383"/>
+        <c:axId val="688946719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="688948383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="688946719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="688946719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="688948383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>288608</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5ABE33-1247-1182-31C7-3A95FCA3B5E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5EDADE-A3FC-48D8-8EBA-BE375D8449E4}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -936,32 +2062,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="2"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -972,45 +2098,45 @@
       <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="11" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1021,122 +2147,122 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="11" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="16"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="29" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1156,39 +2282,39 @@
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1200,12 +2326,16 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1235,4 +2365,2989 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48E503C-E343-44FB-892D-F47B8BDADBDB}">
+  <dimension ref="A1:Q291"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="10"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="10"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="10"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="10"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="13"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="13"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="10"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="10"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="10"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="10"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="10"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="10"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="10"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="10"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="10"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="10"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="13"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="10"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="13"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="10"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="13"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="10"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="13"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="10"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="13"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="10"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="13"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="10"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="13"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="10"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="13"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="10"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="13"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="10"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="13"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="10"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="13"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="10"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="13"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="10"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="13"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="10"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="13"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="10"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="10"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="13"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="10"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="13"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="10"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="13"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="10"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="13"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="10"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="13"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="10"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="13"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="10"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="13"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="10"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="13"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="10"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="13"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="10"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="13"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="10"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="13"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="10"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="13"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="10"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="13"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="10"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="13"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="10"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="13"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="10"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="13"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="10"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="13"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="10"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="13"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="10"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="13"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="10"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="13"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="10"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="13"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="10"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="13"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="10"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="13"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="10"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="13"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="10"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="13"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="10"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="13"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="10"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="13"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="10"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="13"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="10"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="13"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="10"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="13"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="10"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="13"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="10"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="13"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="10"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="13"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="10"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="13"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="10"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="13"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="10"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="13"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="10"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="13"/>
+      <c r="B192" s="14"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="10"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="13"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="10"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="13"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="10"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="13"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="10"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="13"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="10"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="13"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="10"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="13"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="10"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="13"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="10"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="13"/>
+      <c r="B200" s="14"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="10"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="13"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="10"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="13"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="10"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="13"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="10"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="13"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="10"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="13"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="10"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="13"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="10"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="13"/>
+      <c r="B207" s="14"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="10"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="13"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="15"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="10"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="13"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="15"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="10"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="13"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="10"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="13"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="15"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="10"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="13"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="10"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="13"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="10"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="13"/>
+      <c r="B214" s="14"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="10"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="13"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="15"/>
+      <c r="E215" s="15"/>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
+      <c r="H215" s="10"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="13"/>
+      <c r="B216" s="14"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="15"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="10"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="13"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="15"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="10"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="13"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="15"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="10"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="13"/>
+      <c r="B219" s="14"/>
+      <c r="C219" s="15"/>
+      <c r="D219" s="15"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+      <c r="H219" s="10"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="13"/>
+      <c r="B220" s="14"/>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
+      <c r="H220" s="10"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="13"/>
+      <c r="B221" s="14"/>
+      <c r="C221" s="15"/>
+      <c r="D221" s="15"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="15"/>
+      <c r="H221" s="10"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="13"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
+      <c r="H222" s="10"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="13"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="15"/>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="15"/>
+      <c r="H223" s="10"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="13"/>
+      <c r="B224" s="14"/>
+      <c r="C224" s="15"/>
+      <c r="D224" s="15"/>
+      <c r="E224" s="15"/>
+      <c r="F224" s="15"/>
+      <c r="G224" s="15"/>
+      <c r="H224" s="10"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="13"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15"/>
+      <c r="G225" s="15"/>
+      <c r="H225" s="10"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="13"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
+      <c r="H226" s="10"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="13"/>
+      <c r="B227" s="14"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="15"/>
+      <c r="G227" s="15"/>
+      <c r="H227" s="10"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="13"/>
+      <c r="B228" s="14"/>
+      <c r="C228" s="15"/>
+      <c r="D228" s="15"/>
+      <c r="E228" s="15"/>
+      <c r="F228" s="15"/>
+      <c r="G228" s="15"/>
+      <c r="H228" s="10"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="13"/>
+      <c r="B229" s="14"/>
+      <c r="C229" s="15"/>
+      <c r="D229" s="15"/>
+      <c r="E229" s="15"/>
+      <c r="F229" s="15"/>
+      <c r="G229" s="15"/>
+      <c r="H229" s="10"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="13"/>
+      <c r="B230" s="14"/>
+      <c r="C230" s="15"/>
+      <c r="D230" s="15"/>
+      <c r="E230" s="15"/>
+      <c r="F230" s="15"/>
+      <c r="G230" s="15"/>
+      <c r="H230" s="10"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="13"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15"/>
+      <c r="F231" s="15"/>
+      <c r="G231" s="15"/>
+      <c r="H231" s="10"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="13"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="15"/>
+      <c r="H232" s="10"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="13"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="15"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="15"/>
+      <c r="H233" s="10"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="13"/>
+      <c r="B234" s="14"/>
+      <c r="C234" s="15"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="10"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="13"/>
+      <c r="B235" s="14"/>
+      <c r="C235" s="15"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="10"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="13"/>
+      <c r="B236" s="14"/>
+      <c r="C236" s="15"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="15"/>
+      <c r="H236" s="10"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="13"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="10"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="13"/>
+      <c r="B238" s="14"/>
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
+      <c r="H238" s="10"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="13"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="15"/>
+      <c r="H239" s="10"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="13"/>
+      <c r="B240" s="14"/>
+      <c r="C240" s="15"/>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
+      <c r="H240" s="10"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="13"/>
+      <c r="B241" s="14"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="15"/>
+      <c r="H241" s="10"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="13"/>
+      <c r="B242" s="14"/>
+      <c r="C242" s="15"/>
+      <c r="D242" s="15"/>
+      <c r="E242" s="15"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="15"/>
+      <c r="H242" s="10"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="13"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="15"/>
+      <c r="G243" s="15"/>
+      <c r="H243" s="10"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="13"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="10"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="13"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="15"/>
+      <c r="H245" s="10"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="13"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
+      <c r="H246" s="10"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="13"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="10"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="13"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="15"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="15"/>
+      <c r="H248" s="10"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="13"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="10"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="13"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="15"/>
+      <c r="H250" s="10"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="13"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="10"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="13"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="15"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="15"/>
+      <c r="H252" s="10"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="13"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="15"/>
+      <c r="H253" s="10"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="13"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="15"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="15"/>
+      <c r="H254" s="10"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="13"/>
+      <c r="B255" s="14"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="15"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="15"/>
+      <c r="H255" s="10"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="13"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="15"/>
+      <c r="D256" s="15"/>
+      <c r="E256" s="15"/>
+      <c r="F256" s="15"/>
+      <c r="G256" s="15"/>
+      <c r="H256" s="10"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="13"/>
+      <c r="B257" s="14"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="15"/>
+      <c r="F257" s="15"/>
+      <c r="G257" s="15"/>
+      <c r="H257" s="10"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="13"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="15"/>
+      <c r="D258" s="15"/>
+      <c r="E258" s="15"/>
+      <c r="F258" s="15"/>
+      <c r="G258" s="15"/>
+      <c r="H258" s="10"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="13"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="15"/>
+      <c r="F259" s="15"/>
+      <c r="G259" s="15"/>
+      <c r="H259" s="10"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="13"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="15"/>
+      <c r="D260" s="15"/>
+      <c r="E260" s="15"/>
+      <c r="F260" s="15"/>
+      <c r="G260" s="15"/>
+      <c r="H260" s="10"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="13"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="15"/>
+      <c r="D261" s="15"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="15"/>
+      <c r="G261" s="15"/>
+      <c r="H261" s="10"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="13"/>
+      <c r="B262" s="14"/>
+      <c r="C262" s="15"/>
+      <c r="D262" s="15"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="15"/>
+      <c r="G262" s="15"/>
+      <c r="H262" s="10"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="13"/>
+      <c r="B263" s="14"/>
+      <c r="C263" s="15"/>
+      <c r="D263" s="15"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="15"/>
+      <c r="H263" s="10"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="13"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="15"/>
+      <c r="D264" s="15"/>
+      <c r="E264" s="15"/>
+      <c r="F264" s="15"/>
+      <c r="G264" s="15"/>
+      <c r="H264" s="10"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="13"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="15"/>
+      <c r="D265" s="15"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="15"/>
+      <c r="G265" s="15"/>
+      <c r="H265" s="10"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="13"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="15"/>
+      <c r="D266" s="15"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="15"/>
+      <c r="H266" s="10"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="13"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="15"/>
+      <c r="D267" s="15"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="15"/>
+      <c r="G267" s="15"/>
+      <c r="H267" s="10"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="13"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="15"/>
+      <c r="D268" s="15"/>
+      <c r="E268" s="15"/>
+      <c r="F268" s="15"/>
+      <c r="G268" s="15"/>
+      <c r="H268" s="10"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="13"/>
+      <c r="B269" s="14"/>
+      <c r="C269" s="15"/>
+      <c r="D269" s="15"/>
+      <c r="E269" s="15"/>
+      <c r="F269" s="15"/>
+      <c r="G269" s="15"/>
+      <c r="H269" s="10"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="13"/>
+      <c r="B270" s="14"/>
+      <c r="C270" s="15"/>
+      <c r="D270" s="15"/>
+      <c r="E270" s="15"/>
+      <c r="F270" s="15"/>
+      <c r="G270" s="15"/>
+      <c r="H270" s="10"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="13"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="15"/>
+      <c r="D271" s="15"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="15"/>
+      <c r="H271" s="10"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="13"/>
+      <c r="B272" s="14"/>
+      <c r="C272" s="15"/>
+      <c r="D272" s="15"/>
+      <c r="E272" s="15"/>
+      <c r="F272" s="15"/>
+      <c r="G272" s="15"/>
+      <c r="H272" s="10"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="13"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="15"/>
+      <c r="D273" s="15"/>
+      <c r="E273" s="15"/>
+      <c r="F273" s="15"/>
+      <c r="G273" s="15"/>
+      <c r="H273" s="10"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="13"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="15"/>
+      <c r="D274" s="15"/>
+      <c r="E274" s="15"/>
+      <c r="F274" s="15"/>
+      <c r="G274" s="15"/>
+      <c r="H274" s="10"/>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="13"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="15"/>
+      <c r="D275" s="15"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="15"/>
+      <c r="H275" s="10"/>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" s="13"/>
+      <c r="B276" s="14"/>
+      <c r="C276" s="15"/>
+      <c r="D276" s="15"/>
+      <c r="E276" s="15"/>
+      <c r="F276" s="15"/>
+      <c r="G276" s="15"/>
+      <c r="H276" s="10"/>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" s="13"/>
+      <c r="B277" s="14"/>
+      <c r="C277" s="15"/>
+      <c r="D277" s="15"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="15"/>
+      <c r="G277" s="15"/>
+      <c r="H277" s="10"/>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" s="13"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="15"/>
+      <c r="D278" s="15"/>
+      <c r="E278" s="15"/>
+      <c r="F278" s="15"/>
+      <c r="G278" s="15"/>
+      <c r="H278" s="10"/>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="13"/>
+      <c r="B279" s="14"/>
+      <c r="C279" s="15"/>
+      <c r="D279" s="15"/>
+      <c r="E279" s="15"/>
+      <c r="F279" s="15"/>
+      <c r="G279" s="15"/>
+      <c r="H279" s="10"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="13"/>
+      <c r="B280" s="14"/>
+      <c r="C280" s="15"/>
+      <c r="D280" s="15"/>
+      <c r="E280" s="15"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="15"/>
+      <c r="H280" s="10"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="13"/>
+      <c r="B281" s="14"/>
+      <c r="C281" s="15"/>
+      <c r="D281" s="15"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="15"/>
+      <c r="H281" s="10"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" s="13"/>
+      <c r="B282" s="14"/>
+      <c r="C282" s="15"/>
+      <c r="D282" s="15"/>
+      <c r="E282" s="15"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="15"/>
+      <c r="H282" s="10"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="13"/>
+      <c r="B283" s="14"/>
+      <c r="C283" s="15"/>
+      <c r="D283" s="15"/>
+      <c r="E283" s="15"/>
+      <c r="F283" s="15"/>
+      <c r="G283" s="15"/>
+      <c r="H283" s="10"/>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="13"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="15"/>
+      <c r="D284" s="15"/>
+      <c r="E284" s="15"/>
+      <c r="F284" s="15"/>
+      <c r="G284" s="15"/>
+      <c r="H284" s="10"/>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="13"/>
+      <c r="B285" s="14"/>
+      <c r="C285" s="15"/>
+      <c r="D285" s="15"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="15"/>
+      <c r="G285" s="15"/>
+      <c r="H285" s="10"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="13"/>
+      <c r="B286" s="14"/>
+      <c r="C286" s="15"/>
+      <c r="D286" s="15"/>
+      <c r="E286" s="15"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="15"/>
+      <c r="H286" s="10"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" s="13"/>
+      <c r="B287" s="14"/>
+      <c r="C287" s="15"/>
+      <c r="D287" s="15"/>
+      <c r="E287" s="15"/>
+      <c r="F287" s="15"/>
+      <c r="G287" s="15"/>
+      <c r="H287" s="10"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="13"/>
+      <c r="B288" s="14"/>
+      <c r="C288" s="15"/>
+      <c r="D288" s="15"/>
+      <c r="E288" s="15"/>
+      <c r="F288" s="15"/>
+      <c r="G288" s="15"/>
+      <c r="H288" s="10"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="13"/>
+      <c r="B289" s="14"/>
+      <c r="C289" s="15"/>
+      <c r="D289" s="15"/>
+      <c r="E289" s="15"/>
+      <c r="F289" s="15"/>
+      <c r="G289" s="15"/>
+      <c r="H289" s="10"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="13"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="15"/>
+      <c r="D290" s="15"/>
+      <c r="E290" s="15"/>
+      <c r="F290" s="15"/>
+      <c r="G290" s="15"/>
+      <c r="H290" s="10"/>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" s="11"/>
+      <c r="B291" s="11"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I20:P20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>